--- a/TODOS/Farmers-company/Farmer-company-sample.xlsx
+++ b/TODOS/Farmers-company/Farmer-company-sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Projects/Programming_II_2021_01/TODOS/Farmers-company/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D19E06-FE2B-C646-A143-3CAD5A4F8529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875002AC-812B-A447-AE2A-F1BBA0CC4571}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="20240" windowHeight="12240" xr2:uid="{AA97132F-A203-D648-88E4-27BB05680570}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="12000" xr2:uid="{AA97132F-A203-D648-88E4-27BB05680570}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035B5D6A-BA98-F04A-83F4-051D1ACD5166}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,14 +521,13 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1">
         <f>A3-(A3*(E3/100))</f>
-        <v>12.75</v>
+        <v>13.5</v>
       </c>
       <c r="D3" s="1">
         <v>45</v>
       </c>
       <c r="E3" s="1">
-        <f>H3</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -587,7 +586,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f>A7*C3</f>
-        <v>5737.5</v>
+        <v>6075</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -715,7 +714,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="2">
         <f>A9+A20</f>
-        <v>11981.25</v>
+        <v>12318.75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -726,7 +725,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="2">
         <f>A9</f>
-        <v>5737.5</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
